--- a/output/frequencies/VNM_children_2006.xlsx
+++ b/output/frequencies/VNM_children_2006.xlsx
@@ -1,37 +1,138 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://a3di2022-my.sharepoint.com/personal/aaron_a3di2022_onmicrosoft_com/Documents/Alive &amp; Thrive/2_Country_I/output/frequencies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69FDEFC7186D2E3B5B3411599268F66D33FF49" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{789363E5-6D6D-4049-81E6-55502BB17F2A}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="excl_bf_weighted" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="excl_bf_weighted" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>excl_bf</t>
+  </si>
+  <si>
+    <t>Weighted_Count</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CH Sex: Female</t>
+  </si>
+  <si>
+    <t>CH Sex: Male</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Central Highlands</t>
+  </si>
+  <si>
+    <t>Mekong River Delta</t>
+  </si>
+  <si>
+    <t>North Central and Central Coast</t>
+  </si>
+  <si>
+    <t>Northern Midlands and Mountain</t>
+  </si>
+  <si>
+    <t>Red River Delta</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>Mother Edu: Higher</t>
+  </si>
+  <si>
+    <t>Mother Edu: None/ECE</t>
+  </si>
+  <si>
+    <t>Mother Edu: Primary</t>
+  </si>
+  <si>
+    <t>Mother Edu: Secondary</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Poorest</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Richest</t>
+  </si>
+  <si>
+    <t>Kinh and Hoa</t>
+  </si>
+  <si>
+    <t>Mong</t>
+  </si>
+  <si>
+    <t>Other/Missing</t>
+  </si>
+  <si>
+    <t>Tay, Thai, Muong, Nung</t>
+  </si>
+  <si>
+    <t>Elderly HoH: NO</t>
+  </si>
+  <si>
+    <t>Elderly HoH: YES</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +147,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,392 +471,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>excl_bf</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Weighted_Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C2">
         <v>230.3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>CH Sex: Female</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>13.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>119.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>CH Sex: Male</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>20.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>111</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>19.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>179.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>7.7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>51.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Central Highlands</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>10.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Mekong River Delta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>3.3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>50.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>North Central and Central Coast</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>15.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>53.4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Northern Midlands and Mountain</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>46.4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Red River Delta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>21.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>45.8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Southeast</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Higher</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C12">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>8.1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15.2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: None/ECE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>30.9</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22.6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Primary</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>13.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>40.4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Mother Edu: Secondary</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>16.7</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>152.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Middle</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>18.7</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>50.7</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Poor</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>6.9</v>
       </c>
-      <c r="C18" t="n">
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Poorest</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+      <c r="C18">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>32.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>50.2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Rich</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C20">
         <v>52</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Richest</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C21">
         <v>40.6</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Kinh and Hoa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>12.5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>184.8</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Mong</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>57.7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>10</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Other/Missing</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>36.9</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>18.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Tay, Thai, Muong, Nung</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: NO</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C25">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>19.8</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>188.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Elderly HoH: YES</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>3.4</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>41.6</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>0.6</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>43.7</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>20.7</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>186.6</v>
       </c>
     </row>
